--- a/src/main/processing/Any2Json/examples/ReadDocuments/data/1612/대전우신팜.xlsx
+++ b/src/main/processing/Any2Json/examples/ReadDocuments/data/1612/대전우신팜.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\5 re-sales data\1617\1612\201612 2nd sent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\Projects\Any2Json\src\main\processing\Any2Json\examples\ReadDocuments\data\1612\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1CE8A3-AD31-404E-AC0A-E3422D736034}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" iterateCount="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="87">
   <si>
     <t>한화제약</t>
   </si>
@@ -286,24 +287,27 @@
   <si>
     <t>biz code</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -444,6 +448,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +500,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,28 +692,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
       <c r="C1" t="s">
         <v>79</v>
       </c>
@@ -697,8 +752,11 @@
       <c r="I1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="4" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="4" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="4" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="4" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="4" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="4" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="4" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +1012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="4" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="4" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1018,7 +1076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="4" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1050,7 +1108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="4" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1082,7 +1140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="4" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1114,7 +1172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="4" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="4" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1178,7 +1236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="4" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1210,7 +1268,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="4" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1242,7 +1300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="4" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1274,7 +1332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="4" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1306,7 +1364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="4" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1338,7 +1396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="4" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1370,7 +1428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="4" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1402,7 +1460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="4" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1434,7 +1492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="4" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1466,7 +1524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="4" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1498,7 +1556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="4" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1588,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="4" customFormat="1">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -1562,7 +1620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="4" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1594,7 +1652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="4" customFormat="1">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1626,7 +1684,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="4" customFormat="1">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1658,7 +1716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="4" customFormat="1">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1690,7 +1748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="4" customFormat="1">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1722,7 +1780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="4" customFormat="1">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -1761,26 +1819,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
